--- a/Tetra_TPC_24h.xlsx
+++ b/Tetra_TPC_24h.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/app33/Dropbox (Duke Bio_Ea)/Schmid Lab/outreach/miniterm-2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/app33/Dropbox (Duke Bio_Ea)/Schmid Lab/outreach/miniterm-2024/Jterm2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057D9F5F-E3A3-3843-AAB6-97034A52FE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A00AD789-B1A1-4E47-9465-EFD444B3E661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tetra_TPC_24h" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Temp</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Initial </t>
   </si>
@@ -48,6 +45,15 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Volume sampled</t>
+  </si>
+  <si>
+    <t>Density</t>
   </si>
 </sst>
 </file>
@@ -64,11 +70,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,21 +124,58 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="4"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Tetra_TPC_24h!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -140,30 +185,33 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln>
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
-              <a:ln cmpd="sng">
+              <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent5"/>
                 </a:solidFill>
               </a:ln>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$43</c:f>
+              <c:f>Tetra_TPC_24h!$A$2:$A$994</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="993"/>
                 <c:pt idx="0">
                   <c:v>30</c:v>
                 </c:pt>
@@ -295,143 +343,143 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$43</c:f>
+              <c:f>Tetra_TPC_24h!$F$2:$F$994</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="993"/>
                 <c:pt idx="0">
-                  <c:v>4.4308167988433134</c:v>
+                  <c:v>2.1282317058492679</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3985559366250921</c:v>
+                  <c:v>2.0959708436310462</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7593208658153499</c:v>
+                  <c:v>2.456735772821304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6282354589190877</c:v>
+                  <c:v>2.3256503659250418</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6728288344619058</c:v>
+                  <c:v>2.3702437414678603</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5503619494930962</c:v>
+                  <c:v>2.2477768564990508</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2054528045360602</c:v>
+                  <c:v>0.9028677115420144</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0312864262549635</c:v>
+                  <c:v>1.7287013332609182</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7992275112828016</c:v>
+                  <c:v>1.4966424182887561</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0661736852554045</c:v>
+                  <c:v>1.7635885922613588</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.5457786104732629</c:v>
+                  <c:v>1.2431935174792172</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.0073331852324712</c:v>
+                  <c:v>1.7047480922384253</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.367123614131617</c:v>
+                  <c:v>6.4538521137571164E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.5123056239761148</c:v>
+                  <c:v>0.20972053098206911</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.6390573296152584</c:v>
+                  <c:v>0.33647223662121289</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8903717578961645</c:v>
+                  <c:v>0.58778666490211906</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.2188758248682006</c:v>
+                  <c:v>0.91629073187415511</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.0910424533583161</c:v>
+                  <c:v>0.78845736036427028</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.51082562376599072</c:v>
+                  <c:v>-1.791759469228055</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.69314718055994529</c:v>
+                  <c:v>-1.6094379124341003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.51082562376599072</c:v>
+                  <c:v>-1.791759469228055</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>-2.3025850929940455</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.28768207245178085</c:v>
+                  <c:v>-2.0149030205422647</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.51082562376599072</c:v>
+                  <c:v>-1.791759469228055</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.3672958299864741</c:v>
+                  <c:v>1.0647107369924282</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.5165082281731497</c:v>
+                  <c:v>1.213923135179104</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.4231762883809305</c:v>
+                  <c:v>1.120591195386885</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.784189633918261</c:v>
+                  <c:v>1.4816045409242156</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.4657359027997265</c:v>
+                  <c:v>1.1631508098056809</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.1640675883732059</c:v>
+                  <c:v>0.86148249537916011</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9618307218783095</c:v>
+                  <c:v>0.65924562888426386</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.7054087560651467</c:v>
+                  <c:v>1.4028236630711011</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2708355637989119</c:v>
+                  <c:v>0.96825047080486615</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.3440389678222067</c:v>
+                  <c:v>1.041453874828161</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3557350075853982</c:v>
+                  <c:v>1.0531499145913523</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.0602707946915619</c:v>
+                  <c:v>0.75768570169751648</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.0986122886681098</c:v>
+                  <c:v>-3.4011973816621555</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-10.308952660644293</c:v>
+                  <c:v>-12.611537753638338</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-10.308952660644293</c:v>
+                  <c:v>-12.611537753638338</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-1.0986122886681098</c:v>
+                  <c:v>-3.4011973816621555</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-10.308952660644293</c:v>
+                  <c:v>-12.611537753638338</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-10.308952660644293</c:v>
+                  <c:v>-12.611537753638338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0D73-9049-A219-A4B8135A4D17}"/>
+              <c16:uniqueId val="{00000004-44D5-FA48-8CB9-DC3B5F36E9CA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -443,11 +491,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="912721912"/>
-        <c:axId val="141691205"/>
+        <c:axId val="494889888"/>
+        <c:axId val="1119587167"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="912721912"/>
+        <c:axId val="494889888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -455,72 +503,116 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="000000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperature</a:t>
+                </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln/>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr sz="900" b="0" i="0">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141691205"/>
+        <c:crossAx val="1119587167"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141691205"/>
+        <c:axId val="1119587167"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -528,85 +620,189 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="000000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>R</a:t>
+                </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln/>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr sz="900" b="0" i="0">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="912721912"/>
+        <c:crossAx val="494889888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -615,22 +811,583 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4467225" cy="3028950"/>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="72188170" name="Chart 1" title="Chart">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A814D04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59471136-BB2F-0057-D00D-CD2C5E8A8066}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -646,8 +1403,8 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -849,667 +1606,968 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E994"/>
+  <dimension ref="A1:G994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="25" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="27" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>30</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2">
         <v>252</v>
       </c>
-      <c r="D2" s="1">
-        <f>LN(C2/B2)/1</f>
-        <v>4.4308167988433134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <f>C2/D2</f>
+        <v>84</v>
+      </c>
+      <c r="F2" s="1">
+        <f>LN(E2/B2)/1</f>
+        <v>2.1282317058492679</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>30</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2">
         <v>244</v>
       </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D2:D43" si="0">LN(C3/B3)/1</f>
-        <v>4.3985559366250921</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E43" si="0">C3/D3</f>
+        <v>81.333333333333329</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F43" si="1">LN(E3/B3)/1</f>
+        <v>2.0959708436310462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>30</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
         <v>350</v>
       </c>
-      <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>4.7593208658153499</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>116.66666666666667</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="1"/>
+        <v>2.456735772821304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>30</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2">
         <v>307</v>
       </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>4.6282354589190877</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>102.33333333333333</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3256503659250418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>30</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2">
         <v>321</v>
       </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>4.6728288344619058</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3702437414678603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>30</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2">
         <v>284</v>
       </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>4.5503619494930962</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>94.666666666666671</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>2.2477768564990508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>25</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2">
         <v>74</v>
       </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>3.2054528045360602</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>24.666666666666668</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9028677115420144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>25</v>
       </c>
       <c r="B9" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2">
         <v>169</v>
       </c>
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>4.0312864262549635</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>56.333333333333336</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7287013332609182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>25</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2">
         <v>134</v>
       </c>
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>3.7992275112828016</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>44.666666666666664</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4966424182887561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>25</v>
       </c>
       <c r="B11" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2">
         <v>175</v>
       </c>
-      <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>4.0661736852554045</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>58.333333333333336</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7635885922613588</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>25</v>
       </c>
       <c r="B12" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2">
         <v>104</v>
       </c>
-      <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>3.5457786104732629</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>34.666666666666664</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2431935174792172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2">
         <v>165</v>
       </c>
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>4.0073331852324712</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7047480922384253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>22</v>
       </c>
       <c r="B14" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2">
         <v>32</v>
       </c>
-      <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>2.367123614131617</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>6.4538521137571164E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>22</v>
       </c>
       <c r="B15" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2">
         <v>37</v>
       </c>
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>2.5123056239761148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>12.333333333333334</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.20972053098206911</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>22</v>
       </c>
       <c r="B16" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C16" s="2">
         <v>42</v>
       </c>
-      <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>2.6390573296152584</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.33647223662121289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>22</v>
       </c>
       <c r="B17" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C17" s="2">
         <v>54</v>
       </c>
-      <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8903717578961645</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.58778666490211906</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>22</v>
       </c>
       <c r="B18" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C18" s="2">
         <v>75</v>
       </c>
-      <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>3.2188758248682006</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.91629073187415511</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>22</v>
       </c>
       <c r="B19" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2">
         <v>66</v>
       </c>
-      <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>3.0910424533583161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D19" s="2">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.78845736036427028</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>15</v>
       </c>
       <c r="B20" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C20" s="1">
         <v>5</v>
       </c>
-      <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>0.51082562376599072</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="2">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.791759469228055</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>15</v>
       </c>
       <c r="B21" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C21" s="1">
         <v>6</v>
       </c>
-      <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>0.69314718055994529</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="2">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.6094379124341003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>15</v>
       </c>
       <c r="B22" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C22" s="1">
         <v>5</v>
       </c>
-      <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>0.51082562376599072</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="2">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.791759469228055</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>15</v>
       </c>
       <c r="B23" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
       </c>
-      <c r="D23" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="1"/>
+        <v>-2.3025850929940455</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>15</v>
       </c>
       <c r="B24" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
       </c>
-      <c r="D24" s="1">
-        <f t="shared" si="0"/>
-        <v>0.28768207245178085</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="2">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="1"/>
+        <v>-2.0149030205422647</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>15</v>
       </c>
       <c r="B25" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1">
         <v>5</v>
       </c>
-      <c r="D25" s="1">
-        <f t="shared" si="0"/>
-        <v>0.51082562376599072</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="2">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.791759469228055</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>32</v>
       </c>
       <c r="B26" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C26" s="2">
         <v>87</v>
       </c>
-      <c r="D26" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3672958299864741</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="2">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0647107369924282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>32</v>
       </c>
       <c r="B27" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C27" s="2">
         <v>101</v>
       </c>
-      <c r="D27" s="1">
-        <f t="shared" si="0"/>
-        <v>3.5165082281731497</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="2">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>33.666666666666664</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="1"/>
+        <v>1.213923135179104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>32</v>
       </c>
       <c r="B28" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C28" s="2">
         <v>92</v>
       </c>
-      <c r="D28" s="1">
-        <f t="shared" si="0"/>
-        <v>3.4231762883809305</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="2">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>30.666666666666668</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="1"/>
+        <v>1.120591195386885</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>32</v>
       </c>
       <c r="B29" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C29" s="2">
         <v>132</v>
       </c>
-      <c r="D29" s="1">
-        <f t="shared" si="0"/>
-        <v>3.784189633918261</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D29" s="2">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4816045409242156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>32</v>
       </c>
       <c r="B30" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C30" s="2">
         <v>96</v>
       </c>
-      <c r="D30" s="1">
-        <f t="shared" si="0"/>
-        <v>3.4657359027997265</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="2">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1631508098056809</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>32</v>
       </c>
       <c r="B31" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C31" s="2">
         <v>71</v>
       </c>
-      <c r="D31" s="1">
-        <f t="shared" si="0"/>
-        <v>3.1640675883732059</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="2">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>23.666666666666668</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="1"/>
+        <v>0.86148249537916011</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>34</v>
       </c>
       <c r="B32" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C32" s="1">
         <v>58</v>
       </c>
-      <c r="D32" s="1">
-        <f t="shared" si="0"/>
-        <v>2.9618307218783095</v>
-      </c>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D32" s="2">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>19.333333333333332</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="1"/>
+        <v>0.65924562888426386</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>34</v>
       </c>
       <c r="B33" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C33" s="1">
         <v>122</v>
       </c>
-      <c r="D33" s="1">
-        <f t="shared" si="0"/>
-        <v>3.7054087560651467</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D33" s="2">
+        <v>3</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>40.666666666666664</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4028236630711011</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>34</v>
       </c>
       <c r="B34" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C34" s="1">
         <v>79</v>
       </c>
-      <c r="D34" s="1">
-        <f t="shared" si="0"/>
-        <v>3.2708355637989119</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D34" s="2">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="0"/>
+        <v>26.333333333333332</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96825047080486615</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C35" s="1">
         <v>85</v>
       </c>
-      <c r="D35" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3440389678222067</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D35" s="2">
+        <v>3</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>28.333333333333332</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="1"/>
+        <v>1.041453874828161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C36" s="1">
         <v>86</v>
       </c>
-      <c r="D36" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3557350075853982</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D36" s="2">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="0"/>
+        <v>28.666666666666668</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0531499145913523</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>34</v>
       </c>
       <c r="B37" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C37" s="1">
         <v>64</v>
       </c>
-      <c r="D37" s="1">
-        <f t="shared" si="0"/>
-        <v>3.0602707946915619</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D37" s="2">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="0"/>
+        <v>21.333333333333332</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="1"/>
+        <v>0.75768570169751648</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>35</v>
       </c>
       <c r="B38" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
-      <c r="D38" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.0986122886681098</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D38" s="2">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="1"/>
+        <v>-3.4011973816621555</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>35</v>
       </c>
       <c r="B39" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C39" s="1">
         <v>1E-4</v>
       </c>
-      <c r="D39" s="1">
-        <f t="shared" si="0"/>
-        <v>-10.308952660644293</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D39" s="2">
+        <v>3</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335E-5</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="1"/>
+        <v>-12.611537753638338</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>35</v>
       </c>
       <c r="B40" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C40" s="1">
         <v>1E-4</v>
       </c>
-      <c r="D40" s="1">
-        <f t="shared" si="0"/>
-        <v>-10.308952660644293</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D40" s="2">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335E-5</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="1"/>
+        <v>-12.611537753638338</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>35</v>
       </c>
       <c r="B41" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
       </c>
-      <c r="D41" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.0986122886681098</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D41" s="2">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="1"/>
+        <v>-3.4011973816621555</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>35</v>
       </c>
       <c r="B42" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C42" s="1">
         <v>1E-4</v>
       </c>
-      <c r="D42" s="1">
-        <f t="shared" si="0"/>
-        <v>-10.308952660644293</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D42" s="2">
+        <v>3</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335E-5</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="1"/>
+        <v>-12.611537753638338</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>35</v>
       </c>
       <c r="B43" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C43" s="1">
         <v>1E-4</v>
       </c>
-      <c r="D43" s="1">
-        <f t="shared" si="0"/>
-        <v>-10.308952660644293</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="D43" s="2">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335E-5</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="1"/>
+        <v>-12.611537753638338</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
